--- a/biology/Microbiologie/Thiolava_veneris/Thiolava_veneris.xlsx
+++ b/biology/Microbiologie/Thiolava_veneris/Thiolava_veneris.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Thiolava
-Thiolava veneris, unique représentant du genre Thiolava, est une espèce de bactéries pionnières de l'ordre des Thiotrichales capable de recoloniser rapidement les champs de lave sous-marins peu après leur refroidissement. Elle forme alors un large tapis de filaments blancs dénommés « cheveux de Vénus »[2],[1]
-Elle a été découverte en octobre 2014 à la suite de l'éruption sous-marine d'El Hierro durant l'hiver 2011-2012 à environ 130 m de profondeur. C'est une extrêmophile qui présente une grande plasticité métabolique et peut tirer son énergie de différents composants azotés, sulfurés ou carbonés. Ses filaments d'une épaisseur de 36 à 90 µm sont formés par trois trichomes bactériens torsadés entourés d'une gaine sur laquelle se fixent des bactéries épibiotiques[2],[1].
+Thiolava veneris, unique représentant du genre Thiolava, est une espèce de bactéries pionnières de l'ordre des Thiotrichales capable de recoloniser rapidement les champs de lave sous-marins peu après leur refroidissement. Elle forme alors un large tapis de filaments blancs dénommés « cheveux de Vénus »,
+Elle a été découverte en octobre 2014 à la suite de l'éruption sous-marine d'El Hierro durant l'hiver 2011-2012 à environ 130 m de profondeur. C'est une extrêmophile qui présente une grande plasticité métabolique et peut tirer son énergie de différents composants azotés, sulfurés ou carbonés. Ses filaments d'une épaisseur de 36 à 90 µm sont formés par trois trichomes bactériens torsadés entourés d'une gaine sur laquelle se fixent des bactéries épibiotiques,.
 </t>
         </is>
       </c>
@@ -513,10 +525,12 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom générique, Thiolava, dérivé du grec ancien θεῖον, theion, « soufre », et du latin lava, « lave », fait référence au substrat sur lequel cette bactérie a été découverte[1].
-L'épithète spécifique dérive du veneris génitif singulier de venus fait référence à Vénus la déesse de l'amour, de la séduction, de la beauté féminine dans la mythologie romaine[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom générique, Thiolava, dérivé du grec ancien θεῖον, theion, « soufre », et du latin lava, « lave », fait référence au substrat sur lequel cette bactérie a été découverte.
+L'épithète spécifique dérive du veneris génitif singulier de venus fait référence à Vénus la déesse de l'amour, de la séduction, de la beauté féminine dans la mythologie romaine.
 </t>
         </is>
       </c>
@@ -545,7 +559,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>(en) Roberto Danovaro, Miquel Canals, Michael Tangherlini, Antonio Dell’Anno, Cristina Gambi, Galderic Lastras, David Amblas, Anna Sanchez-Vidal, Jaime Frigola, Antoni M Calafat, Rut Pedrosa-Pàmies, Jesus Rivera, Xavier Rayo et Cinzia Corinaldesi, « A submarine volcanic eruption leads to a novel microbial habitat », Nature Ecology and Evolution, NPG, vol. 1, no 144,‎ 24 avril 2017, p. 1-8 (ISSN 2397-334X, PMID 28812643, DOI 10.1038/S41559-017-0144)</t>
         </is>
